--- a/biology/Botanique/Ramalina_siliquosa/Ramalina_siliquosa.xlsx
+++ b/biology/Botanique/Ramalina_siliquosa/Ramalina_siliquosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La  Ramaline des rochers, Ramalina siliquosa est une espèce de lichens du littoral de l'Atlantique.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Le genre Ramalina vient du latin ramus « rameau, branche », et du suffixe -ale, neutre de -alis, allusion aux ramifications du thalle. Siliquosa est également un terme latin silex (pierre, caillou), en référence à son habitat saxicole[1].
-Nomenclature
-Ce lichen porte différents noms en français : ramaline, ramaline siliceuse, lichen arborescent.
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Ramalina vient du latin ramus « rameau, branche », et du suffixe -ale, neutre de -alis, allusion aux ramifications du thalle. Siliquosa est également un terme latin silex (pierre, caillou), en référence à son habitat saxicole.
 </t>
         </is>
       </c>
@@ -542,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Taxinomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le thalle de cette ramaline des rochers se présente généralement sous la forme d'un petit buisson broussailleux vert grisâtre, de taille et de forme variable, avec des organes discoïdes reproducteurs (apothécies blanches à vert pâle) à l'extrémité des lanières aplaties et ramifiées, dressées ou retombantes, de 20 à 70 mm[2].
+          <t>Nomenclature</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce lichen porte différents noms en français : ramaline, ramaline siliceuse, lichen arborescent.
 </t>
         </is>
       </c>
@@ -573,15 +594,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Écologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Habitat
-Macrolichen saxicole calcifuge, il affectionne les rochers plus ou moins siliceux de l'étage supralittoral, au niveau de la zone des embruns. Il peut être trouvé plus à l'intérieur des terres, mais jamais loin du littoral. Pouvant vivre avec une teneur en eau réduite (à l’état déshydraté, il est sec et cassant), il est aussi capable de se réhydrater (faculté de reviviscence)[2].
-Répartition
-Mer du Nord, Manche, océan Atlantique Nord (Bretagne, Îles Britanniques).</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le thalle de cette ramaline des rochers se présente généralement sous la forme d'un petit buisson broussailleux vert grisâtre, de taille et de forme variable, avec des organes discoïdes reproducteurs (apothécies blanches à vert pâle) à l'extrémité des lanières aplaties et ramifiées, dressées ou retombantes, de 20 à 70 mm.
+</t>
         </is>
       </c>
     </row>
@@ -606,10 +627,85 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Macrolichen saxicole calcifuge, il affectionne les rochers plus ou moins siliceux de l'étage supralittoral, au niveau de la zone des embruns. Il peut être trouvé plus à l'intérieur des terres, mais jamais loin du littoral. Pouvant vivre avec une teneur en eau réduite (à l’état déshydraté, il est sec et cassant), il est aussi capable de se réhydrater (faculté de reviviscence).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ramalina_siliquosa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ramalina_siliquosa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Mer du Nord, Manche, océan Atlantique Nord (Bretagne, Îles Britanniques).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ramalina_siliquosa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ramalina_siliquosa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est broutée par les moutons aux îles Shetland.
 </t>
